--- a/Document/ContentMatrix.xlsx
+++ b/Document/ContentMatrix.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\prog\INFO s5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\prog\INFO s5\projet\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="840" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="840" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Légende" sheetId="1" r:id="rId1"/>
     <sheet name="Historique de changement" sheetId="2" r:id="rId2"/>
     <sheet name="URL" sheetId="20" r:id="rId3"/>
     <sheet name="Phase 1 - Accueil" sheetId="17" r:id="rId4"/>
+    <sheet name="Registre des changements" sheetId="21" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Phase 1 - Accueil'!$A$1:$R$851</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="199">
   <si>
     <t>VERSION</t>
   </si>
@@ -472,27 +473,6 @@
     <t>3.login</t>
   </si>
   <si>
-    <t>04-09-2016</t>
-  </si>
-  <si>
-    <t>04-09-2017</t>
-  </si>
-  <si>
-    <t>04-09-2018</t>
-  </si>
-  <si>
-    <t>04-09-2019</t>
-  </si>
-  <si>
-    <t>04-09-2020</t>
-  </si>
-  <si>
-    <t>04-09-2021</t>
-  </si>
-  <si>
-    <t>04-09-2022</t>
-  </si>
-  <si>
     <t>login.TextBox.Couriel</t>
   </si>
   <si>
@@ -560,6 +540,90 @@
   </si>
   <si>
     <t>bouton qui fait en sorte de se connecter si on a entrer le bon couriel et mot de passe</t>
+  </si>
+  <si>
+    <t>4.Resultat Recherche</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>resultat.lbl.titre</t>
+  </si>
+  <si>
+    <t>affiche que c'est la page des résultat de la recherche</t>
+  </si>
+  <si>
+    <t>[Search result]</t>
+  </si>
+  <si>
+    <t>[Résultat de la recherche]</t>
+  </si>
+  <si>
+    <t>08-09-2015</t>
+  </si>
+  <si>
+    <t>resultat.btn.contacter</t>
+  </si>
+  <si>
+    <t>[Join]</t>
+  </si>
+  <si>
+    <t>[Contacter]</t>
+  </si>
+  <si>
+    <t>bouton qui permet de contacter le demandeur ou l'offreur de service</t>
+  </si>
+  <si>
+    <t>5.Profil</t>
+  </si>
+  <si>
+    <t>profil.lbl.commetaires</t>
+  </si>
+  <si>
+    <t>label commentaire</t>
+  </si>
+  <si>
+    <t>[Commentaires]</t>
+  </si>
+  <si>
+    <t>[Comments]</t>
+  </si>
+  <si>
+    <t>profil.btn.cmt_service</t>
+  </si>
+  <si>
+    <t>bbouton pour voir le comentaire sur la personne comme client</t>
+  </si>
+  <si>
+    <t>profil.btn.cmt_client</t>
+  </si>
+  <si>
+    <t>bouton pour voir le comentaire sur les services</t>
+  </si>
+  <si>
+    <t>[Commentaires sur les services]</t>
+  </si>
+  <si>
+    <t>[Commentaires comme client]</t>
+  </si>
+  <si>
+    <t>[Comments as customer]</t>
+  </si>
+  <si>
+    <t>[Comments on services]</t>
+  </si>
+  <si>
+    <t>profil.btn.contacter</t>
+  </si>
+  <si>
+    <t>Sprint2</t>
+  </si>
+  <si>
+    <t>bouton qui permet de contacter la personne de ce profil</t>
+  </si>
+  <si>
+    <t>ajout des content matrix de la page de profil et de la page des résultat de la recherche</t>
   </si>
 </sst>
 </file>
@@ -866,7 +930,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1011,6 +1075,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1046,7 +1138,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1317,9 +1409,6 @@
     <xf numFmtId="0" fontId="22" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1374,9 +1463,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1384,6 +1470,20 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="31" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -1726,7 +1826,7 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="100" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="9"/>
@@ -1752,11 +1852,11 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="98" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="99" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="8"/>
@@ -1805,20 +1905,20 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="102" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1829,7 +1929,7 @@
       <c r="C5" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="103">
         <v>42247</v>
       </c>
     </row>
@@ -1840,7 +1940,7 @@
       <c r="C6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="104"/>
+      <c r="D6" s="103"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
@@ -1849,63 +1949,63 @@
       <c r="C7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="104"/>
+      <c r="D7" s="103"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="104"/>
+      <c r="D8" s="103"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="30"/>
-      <c r="D9" s="104"/>
+      <c r="D9" s="103"/>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="104"/>
+      <c r="D10" s="103"/>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="39"/>
-      <c r="D11" s="104"/>
+      <c r="D11" s="103"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="39"/>
-      <c r="D12" s="104"/>
+      <c r="D12" s="103"/>
     </row>
     <row r="13" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="105"/>
+      <c r="D13" s="104"/>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="D14" s="105"/>
+      <c r="D14" s="104"/>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="105"/>
+      <c r="D15" s="104"/>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -1913,36 +2013,36 @@
         <v>21</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="105"/>
+      <c r="D16" s="104"/>
     </row>
     <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="105"/>
+      <c r="D17" s="104"/>
     </row>
     <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="106"/>
+      <c r="D18" s="105"/>
     </row>
     <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="107"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="106"/>
+      <c r="D19" s="105"/>
     </row>
     <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="107"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="106"/>
+      <c r="D20" s="105"/>
     </row>
     <row r="21" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="107"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="106"/>
+      <c r="D21" s="105"/>
     </row>
     <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
@@ -1976,13 +2076,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="107" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2013,22 +2113,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R856"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="10" style="12" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" style="12" customWidth="1"/>
     <col min="7" max="7" width="38" style="12" customWidth="1"/>
     <col min="8" max="9" width="12.5703125" style="12" customWidth="1"/>
-    <col min="10" max="11" width="36.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="24" style="12" customWidth="1"/>
     <col min="12" max="13" width="14.28515625" style="12" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" style="12" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" style="12" customWidth="1"/>
@@ -2117,10 +2218,10 @@
       <c r="I2" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="111" t="s">
         <v>55</v>
       </c>
       <c r="L2" s="60"/>
@@ -2293,10 +2394,10 @@
       <c r="I6" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="112" t="s">
+      <c r="J6" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="111" t="s">
+      <c r="K6" s="109" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="28"/>
@@ -2425,7 +2526,7 @@
         <v>92</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2547,10 +2648,10 @@
       <c r="I12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="111" t="s">
+      <c r="J12" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="110" t="s">
+      <c r="K12" s="108" t="s">
         <v>102</v>
       </c>
       <c r="L12" s="28"/>
@@ -2766,7 +2867,7 @@
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
-      <c r="O17" s="95"/>
+      <c r="O17" s="94"/>
       <c r="P17" s="25" t="s">
         <v>56</v>
       </c>
@@ -3037,13 +3138,13 @@
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="39" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F24" s="37" t="s">
         <v>82</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H24" s="27" t="s">
         <v>84</v>
@@ -3065,7 +3166,7 @@
         <v>56</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="R24" s="34"/>
     </row>
@@ -3079,13 +3180,13 @@
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="35" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F25" s="37" t="s">
         <v>82</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>84</v>
@@ -3094,7 +3195,7 @@
         <v>44</v>
       </c>
       <c r="J25" s="40" t="str">
-        <f t="shared" ref="J25:K25" si="0">J9</f>
+        <f t="shared" ref="J25" si="0">J9</f>
         <v>[Password]</v>
       </c>
       <c r="K25" s="40" t="str">
@@ -3109,7 +3210,7 @@
         <v>56</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="R25" s="34"/>
     </row>
@@ -3123,13 +3224,13 @@
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="39" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F26" s="37" t="s">
         <v>82</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H26" s="27" t="s">
         <v>84</v>
@@ -3138,10 +3239,10 @@
         <v>44</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
@@ -3151,7 +3252,7 @@
         <v>56</v>
       </c>
       <c r="Q26" s="26" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="R26" s="34"/>
     </row>
@@ -3165,13 +3266,13 @@
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>82</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H27" s="27" t="s">
         <v>84</v>
@@ -3180,10 +3281,10 @@
         <v>44</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -3193,7 +3294,7 @@
         <v>56</v>
       </c>
       <c r="Q27" s="26" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="R27" s="34"/>
     </row>
@@ -3207,13 +3308,13 @@
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="39" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F28" s="37" t="s">
         <v>82</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H28" s="27" t="s">
         <v>84</v>
@@ -3222,10 +3323,10 @@
         <v>44</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K28" s="40" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -3235,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="Q28" s="26" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="R28" s="34"/>
     </row>
@@ -3249,13 +3350,13 @@
       </c>
       <c r="D29" s="70"/>
       <c r="E29" s="70" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>82</v>
       </c>
       <c r="G29" s="55" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H29" s="55" t="s">
         <v>84</v>
@@ -3277,7 +3378,7 @@
         <v>56</v>
       </c>
       <c r="Q29" s="26" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="R29" s="70"/>
     </row>
@@ -3291,13 +3392,13 @@
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="39" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F30" s="37" t="s">
         <v>82</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H30" s="27" t="s">
         <v>84</v>
@@ -3306,10 +3407,10 @@
         <v>44</v>
       </c>
       <c r="J30" s="40" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K30" s="40" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -3319,149 +3420,284 @@
         <v>56</v>
       </c>
       <c r="Q30" s="26" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="R30" s="34"/>
     </row>
     <row r="31" spans="1:18" s="18" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="43">
+        <v>4</v>
+      </c>
       <c r="D31" s="34"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
+      <c r="E31" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>176</v>
+      </c>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26"/>
+      <c r="P31" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="26" t="s">
+        <v>177</v>
+      </c>
       <c r="R31" s="34"/>
     </row>
-    <row r="32" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="36"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="43">
+        <v>4</v>
+      </c>
       <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
+      <c r="E32" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>180</v>
+      </c>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
       <c r="N32" s="28"/>
       <c r="O32" s="28"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="26"/>
+      <c r="P32" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" s="26" t="s">
+        <v>177</v>
+      </c>
       <c r="R32" s="34"/>
     </row>
     <row r="33" spans="1:18" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="36"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="43">
+        <v>5</v>
+      </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
+      <c r="E33" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>185</v>
+      </c>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
       <c r="N33" s="28"/>
       <c r="O33" s="28"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="26"/>
+      <c r="P33" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="26" t="s">
+        <v>177</v>
+      </c>
       <c r="R33" s="34"/>
     </row>
     <row r="34" spans="1:18" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="43">
+        <v>5</v>
+      </c>
       <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
+      <c r="E34" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>191</v>
+      </c>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="26"/>
+      <c r="P34" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" s="26" t="s">
+        <v>177</v>
+      </c>
       <c r="R34" s="34"/>
     </row>
     <row r="35" spans="1:18" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="43">
+        <v>5</v>
+      </c>
       <c r="D35" s="34"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
+      <c r="E35" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>192</v>
+      </c>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
+      <c r="P35" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q35" s="26" t="s">
+        <v>177</v>
+      </c>
       <c r="R35" s="34"/>
     </row>
-    <row r="36" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="43">
+        <v>5</v>
+      </c>
       <c r="D36" s="34"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
+      <c r="E36" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="K36" s="40" t="s">
+        <v>180</v>
+      </c>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="72"/>
+      <c r="P36" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q36" s="26" t="s">
+        <v>177</v>
+      </c>
       <c r="R36" s="34"/>
     </row>
-    <row r="37" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="64"/>
+    <row r="37" spans="1:18" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="27"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q37" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="R37" s="34"/>
     </row>
     <row r="38" spans="1:18" s="18" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36"/>
@@ -3469,9 +3705,9 @@
       <c r="C38" s="43"/>
       <c r="D38" s="34"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="37"/>
+      <c r="F38" s="117"/>
       <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="H38" s="115"/>
       <c r="I38" s="27"/>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
@@ -3733,15 +3969,15 @@
       <c r="G51" s="55"/>
       <c r="H51" s="55"/>
       <c r="I51" s="55"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="97"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="96"/>
       <c r="Q51" s="80"/>
-      <c r="R51" s="98"/>
+      <c r="R51" s="97"/>
     </row>
     <row r="52" spans="1:18" s="18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36"/>
@@ -4313,8 +4549,8 @@
       <c r="G80" s="55"/>
       <c r="H80" s="55"/>
       <c r="I80" s="55"/>
-      <c r="J80" s="91"/>
-      <c r="K80" s="91"/>
+      <c r="J80" s="90"/>
+      <c r="K80" s="90"/>
       <c r="L80" s="60"/>
       <c r="M80" s="60"/>
       <c r="N80" s="60"/>
@@ -4433,8 +4669,8 @@
       <c r="G86" s="55"/>
       <c r="H86" s="55"/>
       <c r="I86" s="55"/>
-      <c r="J86" s="91"/>
-      <c r="K86" s="91"/>
+      <c r="J86" s="90"/>
+      <c r="K86" s="90"/>
       <c r="L86" s="60"/>
       <c r="M86" s="60"/>
       <c r="N86" s="60"/>
@@ -6518,7 +6754,7 @@
       <c r="L190" s="30"/>
       <c r="M190" s="30"/>
       <c r="N190" s="30"/>
-      <c r="O190" s="95"/>
+      <c r="O190" s="94"/>
       <c r="P190" s="25"/>
       <c r="Q190" s="26"/>
       <c r="R190" s="24"/>
@@ -8293,7 +8529,7 @@
       <c r="G279" s="27"/>
       <c r="H279" s="27"/>
       <c r="I279" s="27"/>
-      <c r="J279" s="92"/>
+      <c r="J279" s="91"/>
       <c r="K279" s="40"/>
       <c r="L279" s="30"/>
       <c r="M279" s="28"/>
@@ -8693,7 +8929,7 @@
       <c r="G299" s="38"/>
       <c r="H299" s="38"/>
       <c r="I299" s="38"/>
-      <c r="J299" s="92"/>
+      <c r="J299" s="91"/>
       <c r="K299" s="40"/>
       <c r="L299" s="30"/>
       <c r="M299" s="30"/>
@@ -11573,8 +11809,8 @@
       <c r="G443" s="55"/>
       <c r="H443" s="55"/>
       <c r="I443" s="55"/>
-      <c r="J443" s="93"/>
-      <c r="K443" s="93"/>
+      <c r="J443" s="92"/>
+      <c r="K443" s="92"/>
       <c r="L443" s="79"/>
       <c r="M443" s="79"/>
       <c r="N443" s="79"/>
@@ -14773,8 +15009,8 @@
       <c r="G603" s="55"/>
       <c r="H603" s="55"/>
       <c r="I603" s="55"/>
-      <c r="J603" s="93"/>
-      <c r="K603" s="93"/>
+      <c r="J603" s="92"/>
+      <c r="K603" s="92"/>
       <c r="L603" s="39"/>
       <c r="M603" s="79"/>
       <c r="N603" s="79"/>
@@ -19780,13 +20016,35 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19839,15 +20097,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56277F14-5102-450B-9F74-CC1199F0A7EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30E84F96-43E5-4C3A-8E0E-76AD01F7D6A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19868,15 +20135,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30E84F96-43E5-4C3A-8E0E-76AD01F7D6A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56277F14-5102-450B-9F74-CC1199F0A7EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Document/ContentMatrix.xlsx
+++ b/Document/ContentMatrix.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\prog\INFO s5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1372883\Documents\Projet de bd\Servider\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="840" firstSheet="2" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="840" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Légende" sheetId="1" r:id="rId1"/>
@@ -1374,9 +1374,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1384,6 +1381,9 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="31" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="11" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -1805,11 +1805,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="102" t="s">
@@ -2014,8 +2014,8 @@
   <dimension ref="A1:R856"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2117,10 +2117,10 @@
       <c r="I2" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="112" t="s">
         <v>55</v>
       </c>
       <c r="L2" s="60"/>
@@ -2293,10 +2293,10 @@
       <c r="I6" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="112" t="s">
+      <c r="J6" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="111" t="s">
+      <c r="K6" s="110" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="28"/>
@@ -2547,10 +2547,10 @@
       <c r="I12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="111" t="s">
+      <c r="J12" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="110" t="s">
+      <c r="K12" s="109" t="s">
         <v>102</v>
       </c>
       <c r="L12" s="28"/>
@@ -3094,7 +3094,7 @@
         <v>44</v>
       </c>
       <c r="J25" s="40" t="str">
-        <f t="shared" ref="J25:K25" si="0">J9</f>
+        <f t="shared" ref="J25" si="0">J9</f>
         <v>[Password]</v>
       </c>
       <c r="K25" s="40" t="str">
@@ -3325,7 +3325,9 @@
     </row>
     <row r="31" spans="1:18" s="18" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
-      <c r="B31" s="27"/>
+      <c r="B31" s="27">
+        <v>4</v>
+      </c>
       <c r="C31" s="43"/>
       <c r="D31" s="34"/>
       <c r="E31" s="39"/>
@@ -19781,12 +19783,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19839,15 +19838,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56277F14-5102-450B-9F74-CC1199F0A7EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30E84F96-43E5-4C3A-8E0E-76AD01F7D6A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19868,15 +19876,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30E84F96-43E5-4C3A-8E0E-76AD01F7D6A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56277F14-5102-450B-9F74-CC1199F0A7EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>